--- a/data/trans_bre/P16A06-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A06-Edad-trans_bre.xlsx
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.384192280052232</v>
+        <v>0.4131691563149666</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2630944464117415</v>
+        <v>0.2773650272606429</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.251896416912826</v>
+        <v>0.251960556280102</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.71770393299152</v>
+        <v>-0.872187210738231</v>
       </c>
       <c r="G5" s="6" t="inlineStr"/>
       <c r="H5" s="6" t="inlineStr"/>
       <c r="I5" s="6" t="inlineStr"/>
       <c r="J5" s="6" t="n">
-        <v>-1</v>
+        <v>-0.9561490579606514</v>
       </c>
     </row>
     <row r="6">
@@ -690,16 +690,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.397401380734633</v>
+        <v>2.388973860980875</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.701200775140675</v>
+        <v>2.65162543877796</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.964468129496445</v>
+        <v>2.744495534764093</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.086189626413741</v>
+        <v>6.13332837772451</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="inlineStr"/>
@@ -727,7 +727,7 @@
         <v>0.82278097344336</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.365921399208175</v>
+        <v>0.3659213992081751</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.695570614138127</v>
@@ -739,7 +739,7 @@
         <v>2.442465435524587</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.3253264585063892</v>
+        <v>0.3253264585063894</v>
       </c>
     </row>
     <row r="8">
@@ -750,28 +750,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.4965758993090387</v>
+        <v>-0.5457669524577855</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.383581048904757</v>
+        <v>-1.435890440739449</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.03671486365778193</v>
+        <v>-0.01845478072219459</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-1.180832632148903</v>
+        <v>-1.238663147725344</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.6365967371849711</v>
+        <v>-0.5734109281453047</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.8837503996432217</v>
+        <v>-1</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.6687652190639507</v>
+        <v>-0.5259773017446948</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.7379311001075732</v>
+        <v>-0.7609200133004944</v>
       </c>
     </row>
     <row r="9">
@@ -782,26 +782,26 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.663270575790816</v>
+        <v>1.637912789740274</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.24747911193935</v>
+        <v>1.271351264831467</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.85412090966351</v>
+        <v>1.947255108465547</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2.051596359911915</v>
+        <v>1.923953662801722</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>6.766832389922151</v>
+        <v>4.90042770101713</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>3.891673237582415</v>
+        <v>4.071572648806316</v>
       </c>
       <c r="I9" s="6" t="inlineStr"/>
       <c r="J9" s="6" t="n">
-        <v>5.029327469027553</v>
+        <v>4.754978139592298</v>
       </c>
     </row>
     <row r="10">
@@ -848,28 +848,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.5727167204130742</v>
+        <v>-0.3527726719060156</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.03050245059402767</v>
+        <v>0.2434504568684133</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1655251683014404</v>
+        <v>0.09051963478914407</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.682077060247363</v>
+        <v>-0.6064764255563644</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.3544120004031143</v>
+        <v>-0.2846721073932729</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.04159130579274935</v>
+        <v>-0.001879610424786816</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.06525099783890237</v>
+        <v>-0.1304691008731999</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1965697240291829</v>
+        <v>-0.1723792070561364</v>
       </c>
     </row>
     <row r="12">
@@ -880,28 +880,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.311731902745078</v>
+        <v>2.530249591081946</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.060242169460181</v>
+        <v>4.320639442895455</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.752445106823315</v>
+        <v>2.837386233792474</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.387502988607699</v>
+        <v>3.311362522372072</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>2.93585419926602</v>
+        <v>3.138515307203857</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>3.15064934137046</v>
+        <v>3.292339286204158</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>6.738572352159689</v>
+        <v>7.991312943736075</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>2.272607228943134</v>
+        <v>2.273146580966363</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>1.407058824395748</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.6092166981474688</v>
+        <v>0.6092166981474689</v>
       </c>
     </row>
     <row r="14">
@@ -948,28 +948,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1557186895371253</v>
+        <v>-0.06185632263332343</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.987087250831733</v>
+        <v>0.7603623364632499</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.662758908944741</v>
+        <v>1.823426173431052</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.601824734229819</v>
+        <v>0.4633709503916812</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.04679620263332712</v>
+        <v>-0.12073446831605</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1895734352221208</v>
+        <v>0.1719341434086002</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3514294870556878</v>
+        <v>0.3942977219035176</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.07520682704949636</v>
+        <v>0.04639325169954536</v>
       </c>
     </row>
     <row r="15">
@@ -980,28 +980,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.370339880567554</v>
+        <v>4.573461988253826</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>5.788094421644682</v>
+        <v>5.929075667105459</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6.610122169248132</v>
+        <v>6.661278048282075</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5.129137233770805</v>
+        <v>5.132982716273081</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>4.532670361161969</v>
+        <v>4.84391805966011</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>4.508133090002675</v>
+        <v>4.208009890821488</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>3.308963657134318</v>
+        <v>3.332713192462727</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.453947517494082</v>
+        <v>1.507262529004405</v>
       </c>
     </row>
     <row r="16">
@@ -1025,7 +1025,7 @@
         <v>9.604359985126354</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7.947294692401677</v>
+        <v>7.947294692401681</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>1.519204753515421</v>
@@ -1037,7 +1037,7 @@
         <v>2.605955030095399</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>1.237975348244608</v>
+        <v>1.237975348244609</v>
       </c>
     </row>
     <row r="17">
@@ -1048,28 +1048,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.182416516555136</v>
+        <v>1.1762247590322</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.64573573572062</v>
+        <v>2.411315732344839</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5.726137652384121</v>
+        <v>5.581837655153485</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5.185088586465361</v>
+        <v>5.08181285450401</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.2184647276904512</v>
+        <v>0.2200058355471552</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6535055659329604</v>
+        <v>0.5417946327379843</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9076338132276176</v>
+        <v>0.980630837908133</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.633645733287803</v>
+        <v>0.6304883574189439</v>
       </c>
     </row>
     <row r="18">
@@ -1080,28 +1080,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.764127289134285</v>
+        <v>6.98262689758658</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.217950302562569</v>
+        <v>7.880688370634199</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>13.19682303168154</v>
+        <v>13.10930988611989</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10.89059851795194</v>
+        <v>10.85683598618071</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>4.66163763272176</v>
+        <v>4.376129194390391</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>6.088925333293782</v>
+        <v>6.068354610018371</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>5.474608070164608</v>
+        <v>5.503773393469619</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>2.2378509750634</v>
+        <v>2.230948239101857</v>
       </c>
     </row>
     <row r="19">
@@ -1125,7 +1125,7 @@
         <v>10.31523524516361</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8.23513368439051</v>
+        <v>8.235133684390506</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.7712300062291259</v>
@@ -1137,7 +1137,7 @@
         <v>1.437992980929898</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.9827267999688296</v>
+        <v>0.9827267999688293</v>
       </c>
     </row>
     <row r="20">
@@ -1148,28 +1148,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1198388706339342</v>
+        <v>0.2581462661635196</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>4.153044466554674</v>
+        <v>4.324221467170878</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>5.651213403541785</v>
+        <v>5.769749482326226</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>4.905569200130978</v>
+        <v>4.313372853820368</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.03865307765911849</v>
+        <v>-0.006558665578743401</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6646728628987743</v>
+        <v>0.6604477664477416</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.591267979404657</v>
+        <v>0.5197200897853345</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.464291801969149</v>
+        <v>0.3898366400030558</v>
       </c>
     </row>
     <row r="21">
@@ -1180,28 +1180,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>7.683406089867549</v>
+        <v>7.582090979161237</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>12.43100481959441</v>
+        <v>12.54191232833712</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>15.48847667093542</v>
+        <v>15.219253967984</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>11.70650361067135</v>
+        <v>11.5949242518992</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>2.123202241500474</v>
+        <v>2.129670320224451</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>7.389177554102687</v>
+        <v>6.90641836782913</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>2.877868678616329</v>
+        <v>2.797109677426759</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.728977758723897</v>
+        <v>1.693418552407764</v>
       </c>
     </row>
     <row r="22">
@@ -1225,7 +1225,7 @@
         <v>7.114319828793987</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>11.24361713683324</v>
+        <v>11.24361713683325</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2937360277060599</v>
@@ -1237,7 +1237,7 @@
         <v>0.8273770769596227</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.7060823531639331</v>
+        <v>0.7060823531639338</v>
       </c>
     </row>
     <row r="23">
@@ -1248,28 +1248,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.351230398818688</v>
+        <v>-2.787508680612999</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>8.949532444001163</v>
+        <v>8.746656648959583</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.599795762054113</v>
+        <v>1.513452377985193</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>6.801300020577417</v>
+        <v>6.610053088680648</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.3119539949572362</v>
+        <v>-0.2619796126531194</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1.1950874033473</v>
+        <v>1.111363365811512</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1272491339623313</v>
+        <v>0.1185996212709853</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.3600373601241932</v>
+        <v>0.3512944907740488</v>
       </c>
     </row>
     <row r="24">
@@ -1280,28 +1280,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.185712114512016</v>
+        <v>7.46075701412453</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>18.70294636747067</v>
+        <v>18.65754603475692</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>12.18248258758029</v>
+        <v>12.67475598078486</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>15.61274027389173</v>
+        <v>15.94433903880178</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>1.27380656536734</v>
+        <v>1.415407765988766</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>6.138291229739788</v>
+        <v>6.508505572850389</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>2.000164392135829</v>
+        <v>1.989339890402445</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>1.175264389848781</v>
+        <v>1.205865738587811</v>
       </c>
     </row>
     <row r="25">
@@ -1325,7 +1325,7 @@
         <v>4.865897714079663</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>5.231539115044202</v>
+        <v>5.231539115044201</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>1.100259253815746</v>
@@ -1348,28 +1348,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>1.372225981795742</v>
+        <v>1.328059413427098</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>3.195368646989348</v>
+        <v>3.216821301526814</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3.777398817325126</v>
+        <v>3.818709489647818</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>4.096413935768043</v>
+        <v>4.238802635188449</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.5917233292910801</v>
+        <v>0.5445038191021148</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>1.30193433676739</v>
+        <v>1.254740954752968</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>1.214283112900733</v>
+        <v>1.239459432285941</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.7060593132247417</v>
+        <v>0.7445247970208483</v>
       </c>
     </row>
     <row r="27">
@@ -1380,28 +1380,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>3.099014231239869</v>
+        <v>3.056760257974098</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>5.246575703487482</v>
+        <v>5.224330235840373</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>5.983964798396308</v>
+        <v>5.995290855970044</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>6.225743510434792</v>
+        <v>6.334317150219245</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.885557693571135</v>
+        <v>1.809316666159515</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>3.162305187129038</v>
+        <v>3.019085753690603</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>2.611114315033848</v>
+        <v>2.670266206405213</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.351265194411077</v>
+        <v>1.360532254625368</v>
       </c>
     </row>
     <row r="28">
